--- a/biology/Médecine/Joseph_Gaston/Joseph_Gaston.xlsx
+++ b/biology/Médecine/Joseph_Gaston/Joseph_Gaston.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Gaston est un médecin et poète du XIXe siècle, né le 16 juin 1867 à l'Île d'Yeu et mort à Vairé en Vendée le 30 mai 1935. Il est issu d'une famille de marins, son père fut capitaine au long cours.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 17 juin 1867, ce sont Antoinette Pelletier, sage-femme de profession, accompagnée de Félix Joseph Chauvet, maître au cabotage et grand-père âgé de 57 ans, qui ont fait la déclaration de naissance à la mairie de l'Île d'Yeu. Joseph est né la veille, le 16 juin, à Port-Joinville sur cette commune à 11 heures du soir. Son père, Joseph Alfred, capitaine au long cours est absent pour cause de navigation. Parti de Saint-Nazaire le 7 mai 1867 sur le trois mâts l'Isly à destination de la Martinique, il ne sera de retour au Havre que le 22 novembre d'où il repartira le 30 au cabotage, toujours sur l'Isly, pour Saint-Nazaire. Le trois-mâts sera au port le 14 décembre et lorsqu'enfin Joseph Alfred pourra voir son fils pour la première fois celui-ci aura déjà six mois… Le capitaine Gaston restera quand même alors deux mois à l'Île d'Yeu puisqu'il ne repartira au long cours que le 1er février 1868. Les Gaston sont marins à l'île d'Yeu depuis le mariage de Pierre, originaire des Sables d'Olonne, avec Madeleine Dumonte en 1668 et capitaines au long cours depuis plusieurs générations.
 Sa mère, Joséphine Émilie Nelcy Chauvet, est également issue d'une longue lignée de marins. Son grand-père et son arrière-grand-père étaient eux aussi capitaines au long cours et son ancêtre Jean Louis Chauvet, né à l'Île d'Yeu en 1735, capitaine de barque. Ses deux tantes, les deux sœurs de sa mère, Edmée et Marie, sont institutrices publiques à l'Île d'Yeu.
@@ -545,7 +559,9 @@
           <t>L'enfance à l'île d'Yeu, les études secondaires aux Sables d'Olonne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph fait ses études secondaires au petit séminaire des Sables d'Olonne puis à « Richelieu » à Luçon. Il passe son baccalauréat de lettres en 1886 et de sciences en 1887. À noter qu'il sera le secrétaire de l'association des anciens élèves de Richelieu en 1906 et qu'il occupera très activement cette fonction jusqu'à sa mort en 1935 soit pendant 29 ans.
 Son père est nommé Syndic des gens de mer aux Sables d'Olonne en 1882 et la famille habite rue du Boulet Rouge, Joseph a alors 15 ans.
@@ -579,7 +595,9 @@
           <t>Études de Médecine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1892 Joseph habite déjà Vairé, il est encore célibataire, sa sœur et son beau frère, tous les deux instituteurs publics, sont en poste à l'Île d'Olonne. Parents et enfants ne sont donc pas très loin les uns des autres.
 Joseph commence ses études de médecine à Nantes et présente sa thèse de doctorat, De l'intervention chirurgicale dans les cas des hernies ombilicales adhérentes, à Paris en 1892. Il est lauréat de l'école de médecine de Nantes (Prix clinique 1892) et membre de la société d'anatomo-pathologie de la Loire-Inférieure. Il est alors âgé de 25 ans.
@@ -611,7 +629,9 @@
           <t>Guerre 1914-1918</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien qu'ajourné en 1888 et 1889 pour faiblesse et ayant 5 enfants, Joseph est mobilisé le 1er août 1914 à l'hôpital de La Roche sur Yon. Classé service armée en septembre 1915 par la commission de réforme de La Roche sur Yon, il est affecté à la 11e section territoriale d'infirmiers. Il est noté sur le livre matricule comme ayant participé à la campagne contre l'Allemagne du 8 août 1914 au 24 juillet 1915 et rayé des contrôles le 1er décembre 1918. Maurice, son fils aîné, étudiant en médecine à Nantes, fut également mobilisé en 1914. Il meurt à 20 ans, en mars 1915, à la suite d'une méningite contractée à l'hôpital militaire Broussais de Nantes où il était affecté.
 </t>
@@ -642,7 +662,9 @@
           <t>Mariage, vie familiale et professionnelle à Vairé</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph est installé comme médecin à Vairé depuis 1892 et il y fera toute sa carrière.
 Il se marie le 25 septembre 1894 à Nantes avec Marguerite Félicité Marie Anne Chauvin née à la Roche sur Yon le 15 septembre 1872 et qui habite chez sa mère, née Lemut, rue Beaumanoir à Nantes. L'acte de mariage comporte les signatures de cinq Chauvin, dont Maurice l'ingénieur, et celle d'Auguste Drapeau.
@@ -682,7 +704,9 @@
           <t>Contribution aux rayons X et à leurs développements</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut se demander pourquoi et comment un simple médecin de campagne fut un des pionniers de la radiologie dans la région nantaise et certainement un des tout premiers en France à avoir son propre cabinet. Joseph Gaston fut toute sa vie ouvert aux nouveautés scientifiques et à la modernité mais sans l'aide de son beau-frère Maurice Chauvin, élève de l’École Centrale des Arts et Manufactures, il n'aurait sans doute pas pu mener à bien ce projet de laboratoire.
 Enthousiasmé par la découverte de l'allemand Röntgen (1845-1923), découverte qui parut dans la Revue Générale des Sciences le 30 janvier 1896, Joseph Gaston publie dès le mois de mars dans un journal local un article sur les nouveaux rayons. Il termine en précisant : « Persuadé que les rayons X peuvent dans bien des cas éclairer des diagnostics incertains, j'ai résolu avec la collaboration de mon beau-frère M. Chauvin, qui, à Paris, s'occupe d'une façon très sérieuse de cette question, d'organiser un laboratoire où je demanderai à la lumière invisible de nous révéler ses mystères. A dater de Pâques je me tiendrai à la disposition des personnes qui voudront bien m'accorder leur confiance. Les clichés que nous avons obtenus jusqu'alors nous donnent les plus belles espérances et encouragent nos efforts. »
@@ -724,7 +748,9 @@
           <t>Œuvre littéraire de Joseph Gaston</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce n'est pas une exagération de dire que l'œuvre littéraire de Joseph Gaston a été importante. Il est vrai qu'en 1900 les possibilités de distractions pour un médecin à Vairé, comme dans toutes les campagnes de France d'ailleurs, ne devaient pas être très variées et que dans les milieux évolués de l'époque à part la lecture, la musique ou la partie de jacquet entre notables, il n'y avait pas grand chose d'autre à faire pour se distraire. Mais il est vrai également que peu de médecins de campagne doivent avoir à leur actif autant de poèmes divers, de comédies, de drames en vers ou en prose, de chansons ou même de nouvelles. Le poème de Saint Filibert publié en 1912 qui comprend à lui seul 92 pages et qui retrace en détail la vie complète du Saint en est un exemple. Avant son écriture il avait dû déjà demander un travail considérable de recherches même si Joseph Gaston fut aidé en cela par l'abbé L. Jaud, curé-doyen de Noirmoutier, et son important ouvrage de 560 pages écrit en 1910, ouvrage qui lui avait demandé 10 ans de travail ! Il est assez difficile cependant, même compte tenu de la dizaine de cahiers manuscrits qui sont conservés par la famille Gaston et censés répertorier sa production, de connaître l'ensemble de son œuvre. En dehors des pièces de théâtre, on retrouve en effet dans des journaux locaux ou revues littéraires, d'autres poèmes. Il ne serait donc pas impossible d'évaluer l'ensemble entre huit cents et mille. À noter également pour conforter cette idée de nombre qu'il arrivait à Joseph Gaston d'écrire deux poèmes le même jour ou l'un un jour et un autre le lendemain.
 A lire certaines de ses œuvres, surtout dans les longs poèmes religieux, on trouve aujourd'hui quelquefois un peu de lourdeur ou même d'archaïsme. N'oublions pas qu'en 1900 il existait un certain style qu'il était naturel de respecter. De la même façon Victor Hugo ne versifiait pas comme Racine qui lui-même n'avait pas le style de Ronsard qui lui aussi était différent de François Villon. Sans vouloir comparer Joseph Gaston à ses illustres pairs on peut dire que son écriture est de son époque et le certainement le fruit de son éducation classique à Richelieu.
@@ -732,7 +758,7 @@
 Son inspiration Joseph Gaston l'a trouvée dans ses propres convictions. D'abord Dieu, puis la France et la Vendée. Il faudrait y ajouter également sa famille à laquelle il était très attaché, la nature et l'île d'Yeu, sa petite patrie. Son écriture aisée et souple s'accommode d'une veine que les sujets les plus divers tiennent en éveil avec même parfois une pointe d'humour. Toujours épris d'idéal il a pareillement toujours su chanter les nobles causes.
 Joseph Gaston a collaboré à divers périodiques et remporté de nombreuses récompenses :
 premier prix de la Lice Chansonnière, du Caveau Stéphanois, de l’Émulation Française, prix du Ministre aux Jeux Floraux de Touraine, Violette d'Or à Cahors, lyres et mainteneur du Palinod de Lyre. En 1930 il remporta le prix du Ministre de l'Académie de Franches-Poésies.
-Des diverses associations littéraires dont faisait partie Joseph Gaston, c'est certainement la Revue du Bas Poitou et des Provinces de l'Ouest[1] qui lui tenait le plus à cœur parce qu'elle était vendéenne. Il y retrouvait entre autres des auteurs célèbres alors comme Jean Yole[2] que l'on a appelé le chantre de la Vendée, Alphonse de Chateaubriant prix Goncourt, Émile Gabory archiviste de la Loire Inférieure et auteurs de livres majeurs sur la Vendée, Paul Payen de la Garanderie[3] critique littéraire et professeur de lettres. Ce remarquable compagnonnage est en soi un brevet de qualité pour les œuvres de Joseph Gaston.
+Des diverses associations littéraires dont faisait partie Joseph Gaston, c'est certainement la Revue du Bas Poitou et des Provinces de l'Ouest qui lui tenait le plus à cœur parce qu'elle était vendéenne. Il y retrouvait entre autres des auteurs célèbres alors comme Jean Yole que l'on a appelé le chantre de la Vendée, Alphonse de Chateaubriant prix Goncourt, Émile Gabory archiviste de la Loire Inférieure et auteurs de livres majeurs sur la Vendée, Paul Payen de la Garanderie critique littéraire et professeur de lettres. Ce remarquable compagnonnage est en soi un brevet de qualité pour les œuvres de Joseph Gaston.
 Lors de son décès le 30 mai 1935, René Vallette, président de la Revue du Bas Poitou, écrivit les lignes suivantes : « (…) Cette mort met en deuil non seulement une des meilleures familles de Vendée, dont le regretté défunt continua toute sa vie les traditions de foi et d'honneur, mais aussi le corps médical dont il était un des dignes représentants, les Lettres Vendéennes qu'il honorait de son remarquable talent de poète et la Revue du Bas Poitou à laquelle il apportait souvent sa précieuse collaboration. Doué d'une haute intelligence, le docteur Gaston s'intéressait, du reste, à toutes les revues littéraires et prenait part chaque année à de nombreux concours. (…) Dans toutes ses œuvres – qui sont innombrables – il s'est toujours montré heureux de prendre la défense de l’Église et, vibrant devant l'idéal du beau, il n'a cessé de mettre son talent au service des causes les plus élevées. Sa Muse, délicieusement inspirée, le suivait partout où le conduisait son cœur et il nous en a donné personnellement une preuve exquise dans le charmant toast qu'il nous porta lors du 25e anniversaire de la Revue du Bas Poitou Jean Yole disait de lui qu'il était un de ses êtres privilégiés auxquels un enthousiasme latent, un optimisme foncier, en un mot le "don", confère cette puissance que détient le rêve – le rêve, ce frère de l'action qui ajoute à tous les actes de la vie une marque de qualité. »
 Quel bel hommage d'un grand écrivain, hommage qui résume à lui seul l'œuvre de Joseph Gaston : nous faire rêver !
 </t>
